--- a/MobileSuitDatabase/docs/DB設計/MSDB_テーブル定義書.xlsx
+++ b/MobileSuitDatabase/docs/DB設計/MSDB_テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk26s\git\MobileSuitDatabase\MoblieSuitDatabase\docs\DB設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk26s\git\MobileSuitDatabase\MobileSuitDatabase\docs\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FEC467-D72C-4A3A-8432-645E7255365F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86744527-8270-4CBE-BD26-E548647540ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileSuit" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>DECIMAL(5,2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -644,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -898,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -917,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1020,7 +1024,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1156,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EE358C-79C4-4F88-8F05-37338300CCAE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/MobileSuitDatabase/docs/DB設計/MSDB_テーブル定義書.xlsx
+++ b/MobileSuitDatabase/docs/DB設計/MSDB_テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk26s\git\MobileSuitDatabase\MobileSuitDatabase\docs\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86744527-8270-4CBE-BD26-E548647540ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC9298-5CEB-418C-96AC-E91D3FE7C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -134,10 +134,6 @@
     <t>update_date</t>
   </si>
   <si>
-    <t>VARCHAR(7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>BIGINT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -649,7 +649,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -674,10 +674,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -717,21 +717,21 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -742,17 +742,17 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -763,19 +763,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -786,17 +786,17 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -815,7 +815,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -834,7 +834,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -853,7 +853,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -864,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -872,7 +872,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -883,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -891,7 +891,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -902,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -910,7 +910,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -921,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -929,7 +929,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -940,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -948,7 +948,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -959,7 +959,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -967,7 +967,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -978,17 +978,17 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -999,17 +999,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1042,15 +1042,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1087,24 +1087,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1112,22 +1112,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1135,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1146,7 +1146,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1158,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EE358C-79C4-4F88-8F05-37338300CCAE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1181,15 +1181,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1226,24 +1226,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1254,19 +1254,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1274,22 +1274,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1297,64 +1297,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
